--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifng-Ifngr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifng-Ifngr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H2">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.92457566666666</v>
+        <v>7.486252333333333</v>
       </c>
       <c r="N2">
-        <v>41.77372699999999</v>
+        <v>22.458757</v>
       </c>
       <c r="O2">
-        <v>0.1996455200705874</v>
+        <v>0.1371548009319641</v>
       </c>
       <c r="P2">
-        <v>0.1996455200705874</v>
+        <v>0.1371548009319641</v>
       </c>
       <c r="Q2">
-        <v>2.434967339203888</v>
+        <v>0.4962112634103333</v>
       </c>
       <c r="R2">
-        <v>21.914706052835</v>
+        <v>4.465901370693</v>
       </c>
       <c r="S2">
-        <v>0.1996455200705874</v>
+        <v>0.07980212667558169</v>
       </c>
       <c r="T2">
-        <v>0.1996455200705874</v>
+        <v>0.07980212667558172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H3">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>36.251606</v>
       </c>
       <c r="O3">
-        <v>0.1732541301202076</v>
+        <v>0.2213872212248432</v>
       </c>
       <c r="P3">
-        <v>0.1732541301202076</v>
+        <v>0.2213872212248432</v>
       </c>
       <c r="Q3">
-        <v>2.113085973958889</v>
+        <v>0.8009550668326665</v>
       </c>
       <c r="R3">
-        <v>19.01777376563</v>
+        <v>7.208595601493999</v>
       </c>
       <c r="S3">
-        <v>0.1732541301202076</v>
+        <v>0.1288119041585996</v>
       </c>
       <c r="T3">
-        <v>0.1732541301202076</v>
+        <v>0.1288119041585996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H4">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.922441</v>
+        <v>7.866546666666667</v>
       </c>
       <c r="N4">
-        <v>20.767323</v>
+        <v>23.59964</v>
       </c>
       <c r="O4">
-        <v>0.09925145057822762</v>
+        <v>0.1441221313479645</v>
       </c>
       <c r="P4">
-        <v>0.09925145057822762</v>
+        <v>0.1441221313479645</v>
       </c>
       <c r="Q4">
-        <v>1.210515720268333</v>
+        <v>0.5214183127066666</v>
       </c>
       <c r="R4">
-        <v>10.894641482415</v>
+        <v>4.69276481436</v>
       </c>
       <c r="S4">
-        <v>0.09925145057822762</v>
+        <v>0.08385599705175692</v>
       </c>
       <c r="T4">
-        <v>0.09925145057822762</v>
+        <v>0.08385599705175693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1748683333333333</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="H5">
-        <v>0.524605</v>
+        <v>0.198849</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.581839834503261</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.81561166666666</v>
+        <v>27.14583533333333</v>
       </c>
       <c r="N5">
-        <v>110.446835</v>
+        <v>81.437506</v>
       </c>
       <c r="O5">
-        <v>0.5278488992309774</v>
+        <v>0.4973358464952282</v>
       </c>
       <c r="P5">
-        <v>0.5278488992309774</v>
+        <v>0.4973358464952283</v>
       </c>
       <c r="Q5">
-        <v>6.437884652797221</v>
+        <v>1.799307403399333</v>
       </c>
       <c r="R5">
-        <v>57.94096187517499</v>
+        <v>16.193766630594</v>
       </c>
       <c r="S5">
-        <v>0.5278488992309774</v>
+        <v>0.2893698066173228</v>
       </c>
       <c r="T5">
-        <v>0.5278488992309774</v>
+        <v>0.2893698066173229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.14291</v>
+      </c>
+      <c r="I6">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J6">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.486252333333333</v>
+      </c>
+      <c r="N6">
+        <v>22.458757</v>
+      </c>
+      <c r="O6">
+        <v>0.1371548009319641</v>
+      </c>
+      <c r="P6">
+        <v>0.1371548009319641</v>
+      </c>
+      <c r="Q6">
+        <v>0.3566201069855555</v>
+      </c>
+      <c r="R6">
+        <v>3.20958096287</v>
+      </c>
+      <c r="S6">
+        <v>0.05735267425638238</v>
+      </c>
+      <c r="T6">
+        <v>0.05735267425638239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.14291</v>
+      </c>
+      <c r="I7">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J7">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.08386866666667</v>
+      </c>
+      <c r="N7">
+        <v>36.251606</v>
+      </c>
+      <c r="O7">
+        <v>0.2213872212248432</v>
+      </c>
+      <c r="P7">
+        <v>0.2213872212248432</v>
+      </c>
+      <c r="Q7">
+        <v>0.5756352237177778</v>
+      </c>
+      <c r="R7">
+        <v>5.18071701346</v>
+      </c>
+      <c r="S7">
+        <v>0.09257531706624357</v>
+      </c>
+      <c r="T7">
+        <v>0.09257531706624357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.14291</v>
+      </c>
+      <c r="I8">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J8">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.866546666666667</v>
+      </c>
+      <c r="N8">
+        <v>23.59964</v>
+      </c>
+      <c r="O8">
+        <v>0.1441221313479645</v>
+      </c>
+      <c r="P8">
+        <v>0.1441221313479645</v>
+      </c>
+      <c r="Q8">
+        <v>0.3747360613777778</v>
+      </c>
+      <c r="R8">
+        <v>3.3726245524</v>
+      </c>
+      <c r="S8">
+        <v>0.06026613429620758</v>
+      </c>
+      <c r="T8">
+        <v>0.06026613429620759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04763666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.14291</v>
+      </c>
+      <c r="I9">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="J9">
+        <v>0.4181601654967389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.14583533333333</v>
+      </c>
+      <c r="N9">
+        <v>81.437506</v>
+      </c>
+      <c r="O9">
+        <v>0.4973358464952282</v>
+      </c>
+      <c r="P9">
+        <v>0.4973358464952283</v>
+      </c>
+      <c r="Q9">
+        <v>1.293137109162222</v>
+      </c>
+      <c r="R9">
+        <v>11.63823398246</v>
+      </c>
+      <c r="S9">
+        <v>0.2079660398779054</v>
+      </c>
+      <c r="T9">
+        <v>0.2079660398779054</v>
       </c>
     </row>
   </sheetData>
